--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N2">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O2">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P2">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q2">
-        <v>1725.693229570412</v>
+        <v>1943.583768507815</v>
       </c>
       <c r="R2">
-        <v>1725.693229570412</v>
+        <v>17492.25391657033</v>
       </c>
       <c r="S2">
-        <v>0.07953039784299457</v>
+        <v>0.08140470459874942</v>
       </c>
       <c r="T2">
-        <v>0.07953039784299457</v>
+        <v>0.09188465352995746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N3">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P3">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q3">
-        <v>1524.5907038335</v>
+        <v>1775.351114052388</v>
       </c>
       <c r="R3">
-        <v>1524.5907038335</v>
+        <v>15978.16002647149</v>
       </c>
       <c r="S3">
-        <v>0.07026237522748653</v>
+        <v>0.07435847908395117</v>
       </c>
       <c r="T3">
-        <v>0.07026237522748653</v>
+        <v>0.08393130496966886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N4">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O4">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P4">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q4">
-        <v>312.8008251496829</v>
+        <v>380.4269266691256</v>
       </c>
       <c r="R4">
-        <v>312.8008251496829</v>
+        <v>3423.84234002213</v>
       </c>
       <c r="S4">
-        <v>0.01441575689322493</v>
+        <v>0.01593373133111024</v>
       </c>
       <c r="T4">
-        <v>0.01441575689322493</v>
+        <v>0.01798502175046261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N5">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O5">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P5">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q5">
-        <v>585.4288827751035</v>
+        <v>666.789201618855</v>
       </c>
       <c r="R5">
-        <v>585.4288827751035</v>
+        <v>6001.102814569696</v>
       </c>
       <c r="S5">
-        <v>0.02698010930220439</v>
+        <v>0.02792767611405405</v>
       </c>
       <c r="T5">
-        <v>0.02698010930220439</v>
+        <v>0.03152305332087831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N6">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O6">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P6">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q6">
-        <v>1527.650054215799</v>
+        <v>1682.018540628783</v>
       </c>
       <c r="R6">
-        <v>1527.650054215799</v>
+        <v>10092.1112437727</v>
       </c>
       <c r="S6">
-        <v>0.07040336862589371</v>
+        <v>0.07044935476829445</v>
       </c>
       <c r="T6">
-        <v>0.07040336862589371</v>
+        <v>0.05301261629534236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N7">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O7">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P7">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q7">
-        <v>946.191797709496</v>
+        <v>1053.593287545801</v>
       </c>
       <c r="R7">
-        <v>946.191797709496</v>
+        <v>9482.339587912205</v>
       </c>
       <c r="S7">
-        <v>0.04360624983523124</v>
+        <v>0.04412850720899932</v>
       </c>
       <c r="T7">
-        <v>0.04360624983523124</v>
+        <v>0.0498095609544835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N8">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P8">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q8">
-        <v>835.9279587545866</v>
+        <v>962.3963973719685</v>
       </c>
       <c r="R8">
-        <v>835.9279587545866</v>
+        <v>8661.567576347717</v>
       </c>
       <c r="S8">
-        <v>0.03852462418502062</v>
+        <v>0.04030883345723452</v>
       </c>
       <c r="T8">
-        <v>0.03852462418502062</v>
+        <v>0.04549814675541064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N9">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O9">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P9">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q9">
-        <v>171.5076411043634</v>
+        <v>206.2248423941073</v>
       </c>
       <c r="R9">
-        <v>171.5076411043634</v>
+        <v>1856.023581546966</v>
       </c>
       <c r="S9">
-        <v>0.00790411105312099</v>
+        <v>0.008637483317173761</v>
       </c>
       <c r="T9">
-        <v>0.00790411105312099</v>
+        <v>0.009749463079330325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N10">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O10">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P10">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q10">
-        <v>320.9886887960554</v>
+        <v>361.458373143861</v>
       </c>
       <c r="R10">
-        <v>320.9886887960554</v>
+        <v>3253.125358294749</v>
       </c>
       <c r="S10">
-        <v>0.01479310325011034</v>
+        <v>0.01513925592880986</v>
       </c>
       <c r="T10">
-        <v>0.01479310325011034</v>
+        <v>0.01708826648996179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J11">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N11">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O11">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P11">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q11">
-        <v>837.6053902867089</v>
+        <v>911.8019365301899</v>
       </c>
       <c r="R11">
-        <v>837.6053902867089</v>
+        <v>5470.81161918114</v>
       </c>
       <c r="S11">
-        <v>0.03860193039148773</v>
+        <v>0.03818974437762153</v>
       </c>
       <c r="T11">
-        <v>0.03860193039148773</v>
+        <v>0.02873749904121474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H12">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I12">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J12">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N12">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O12">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P12">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q12">
-        <v>1425.65559407768</v>
+        <v>1581.299614328434</v>
       </c>
       <c r="R12">
-        <v>1425.65559407768</v>
+        <v>14231.69652895591</v>
       </c>
       <c r="S12">
-        <v>0.06570284604542014</v>
+        <v>0.06623086180913688</v>
       </c>
       <c r="T12">
-        <v>0.06570284604542014</v>
+        <v>0.0747573475061357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H13">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I13">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J13">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N13">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P13">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q13">
-        <v>1259.517756895952</v>
+        <v>1444.425538758202</v>
       </c>
       <c r="R13">
-        <v>1259.517756895952</v>
+        <v>12999.82984882382</v>
       </c>
       <c r="S13">
-        <v>0.05804620808600328</v>
+        <v>0.06049805323686934</v>
       </c>
       <c r="T13">
-        <v>0.05804620808600328</v>
+        <v>0.06828650368927276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H14">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I14">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J14">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N14">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O14">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P14">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q14">
-        <v>258.4157129235373</v>
+        <v>309.515320188074</v>
       </c>
       <c r="R14">
-        <v>258.4157129235373</v>
+        <v>2785.637881692666</v>
       </c>
       <c r="S14">
-        <v>0.01190936147023426</v>
+        <v>0.012963682665472</v>
       </c>
       <c r="T14">
-        <v>0.01190936147023426</v>
+        <v>0.01463261240318425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H15">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I15">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J15">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N15">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O15">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P15">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q15">
-        <v>483.6432961324996</v>
+        <v>542.499646499811</v>
       </c>
       <c r="R15">
-        <v>483.6432961324996</v>
+        <v>4882.496818498299</v>
       </c>
       <c r="S15">
-        <v>0.02228921287770835</v>
+        <v>0.02272195527859778</v>
       </c>
       <c r="T15">
-        <v>0.02228921287770835</v>
+        <v>0.02564715391558854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H16">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I16">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J16">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N16">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O16">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P16">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q16">
-        <v>1262.045193355707</v>
+        <v>1368.49016373069</v>
       </c>
       <c r="R16">
-        <v>1262.045193355707</v>
+        <v>8210.94098238414</v>
       </c>
       <c r="S16">
-        <v>0.05816268766865614</v>
+        <v>0.05731758997468862</v>
       </c>
       <c r="T16">
-        <v>0.05816268766865614</v>
+        <v>0.04313106080666936</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H17">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I17">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J17">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N17">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O17">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P17">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q17">
-        <v>1888.522707633925</v>
+        <v>1977.105852259518</v>
       </c>
       <c r="R17">
-        <v>1888.522707633925</v>
+        <v>17793.95267033566</v>
       </c>
       <c r="S17">
-        <v>0.08703456657301967</v>
+        <v>0.08280873738064336</v>
       </c>
       <c r="T17">
-        <v>0.08703456657301967</v>
+        <v>0.09346943989267352</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H18">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I18">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J18">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N18">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P18">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q18">
-        <v>1668.444955743319</v>
+        <v>1805.971594475331</v>
       </c>
       <c r="R18">
-        <v>1668.444955743319</v>
+        <v>16253.74435027798</v>
       </c>
       <c r="S18">
-        <v>0.07689205058910473</v>
+        <v>0.07564098164642893</v>
       </c>
       <c r="T18">
-        <v>0.07689205058910473</v>
+        <v>0.0853789154509722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H19">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I19">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J19">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N19">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O19">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P19">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q19">
-        <v>342.3154539517197</v>
+        <v>386.9883641043622</v>
       </c>
       <c r="R19">
-        <v>342.3154539517197</v>
+        <v>3482.89527693926</v>
       </c>
       <c r="S19">
-        <v>0.01577596978077194</v>
+        <v>0.01620854936818856</v>
       </c>
       <c r="T19">
-        <v>0.01577596978077194</v>
+        <v>0.01829521954855293</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H20">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I20">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J20">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N20">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O20">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P20">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q20">
-        <v>640.667599478712</v>
+        <v>678.28969047021</v>
       </c>
       <c r="R20">
-        <v>640.667599478712</v>
+        <v>6104.60721423189</v>
       </c>
       <c r="S20">
-        <v>0.02952584399044215</v>
+        <v>0.02840936047099047</v>
       </c>
       <c r="T20">
-        <v>0.02952584399044215</v>
+        <v>0.03206674917317655</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H21">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I21">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J21">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N21">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O21">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P21">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q21">
-        <v>1671.792974133019</v>
+        <v>1711.029261599233</v>
       </c>
       <c r="R21">
-        <v>1671.792974133019</v>
+        <v>10266.1755695954</v>
       </c>
       <c r="S21">
-        <v>0.07704634755797254</v>
+        <v>0.071664434462343</v>
       </c>
       <c r="T21">
-        <v>0.07704634755797254</v>
+        <v>0.05392695474174426</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H22">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I22">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J22">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.5148931640452</v>
+        <v>12.80982066666667</v>
       </c>
       <c r="N22">
-        <v>12.5148931640452</v>
+        <v>38.429462</v>
       </c>
       <c r="O22">
-        <v>0.3040245704902757</v>
+        <v>0.3014163559118313</v>
       </c>
       <c r="P22">
-        <v>0.3040245704902757</v>
+        <v>0.3301205700869484</v>
       </c>
       <c r="Q22">
-        <v>610.8248690767097</v>
+        <v>640.9049506636251</v>
       </c>
       <c r="R22">
-        <v>610.8248690767097</v>
+        <v>3845.42970398175</v>
       </c>
       <c r="S22">
-        <v>0.02815051019361008</v>
+        <v>0.02684354491430231</v>
       </c>
       <c r="T22">
-        <v>0.02815051019361008</v>
+        <v>0.02019956820369824</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H23">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I23">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J23">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0564783186421</v>
+        <v>11.70102866666667</v>
       </c>
       <c r="N23">
-        <v>11.0564783186421</v>
+        <v>35.103086</v>
       </c>
       <c r="O23">
-        <v>0.2685952670868577</v>
+        <v>0.2753263697363138</v>
       </c>
       <c r="P23">
-        <v>0.2685952670868577</v>
+        <v>0.3015460055655002</v>
       </c>
       <c r="Q23">
-        <v>539.6427946214346</v>
+        <v>585.429522822125</v>
       </c>
       <c r="R23">
-        <v>539.6427946214346</v>
+        <v>3512.57713693275</v>
       </c>
       <c r="S23">
-        <v>0.02487000899924256</v>
+        <v>0.02452002231182983</v>
       </c>
       <c r="T23">
-        <v>0.02487000899924256</v>
+        <v>0.01845113470017573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H24">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I24">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J24">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.26846164850978</v>
+        <v>2.507327333333333</v>
       </c>
       <c r="N24">
-        <v>2.26846164850978</v>
+        <v>7.521982</v>
       </c>
       <c r="O24">
-        <v>0.05510778792289159</v>
+        <v>0.05899766183753465</v>
       </c>
       <c r="P24">
-        <v>0.05510778792289159</v>
+        <v>0.06461607466749766</v>
       </c>
       <c r="Q24">
-        <v>110.7187070072154</v>
+        <v>125.447384681125</v>
       </c>
       <c r="R24">
-        <v>110.7187070072154</v>
+        <v>752.68430808675</v>
       </c>
       <c r="S24">
-        <v>0.005102588725539476</v>
+        <v>0.005254215155590091</v>
       </c>
       <c r="T24">
-        <v>0.005102588725539476</v>
+        <v>0.003953757885967554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H25">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I25">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J25">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.24558652577006</v>
+        <v>4.394691</v>
       </c>
       <c r="N25">
-        <v>4.24558652577006</v>
+        <v>13.184073</v>
       </c>
       <c r="O25">
-        <v>0.1031381253565036</v>
+        <v>0.1034075168612968</v>
       </c>
       <c r="P25">
-        <v>0.1031381253565036</v>
+        <v>0.113255129484455</v>
       </c>
       <c r="Q25">
-        <v>207.2178962907824</v>
+        <v>219.8765534529375</v>
       </c>
       <c r="R25">
-        <v>207.2178962907824</v>
+        <v>1319.259320717625</v>
       </c>
       <c r="S25">
-        <v>0.00954985593603842</v>
+        <v>0.009209269068844637</v>
       </c>
       <c r="T25">
-        <v>0.00954985593603842</v>
+        <v>0.006929906584849832</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H26">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I26">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J26">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.0786650216608</v>
+        <v>11.08589</v>
       </c>
       <c r="N26">
-        <v>11.0786650216608</v>
+        <v>22.17178</v>
       </c>
       <c r="O26">
-        <v>0.2691342491434712</v>
+        <v>0.2608520956530235</v>
       </c>
       <c r="P26">
-        <v>0.2691342491434712</v>
+        <v>0.1904622201955989</v>
       </c>
       <c r="Q26">
-        <v>540.7256796120614</v>
+        <v>554.652712820625</v>
       </c>
       <c r="R26">
-        <v>540.7256796120614</v>
+        <v>2218.6108512825</v>
       </c>
       <c r="S26">
-        <v>0.0249199148994611</v>
+        <v>0.02323097207007593</v>
       </c>
       <c r="T26">
-        <v>0.0249199148994611</v>
+        <v>0.01165408931062819</v>
       </c>
     </row>
   </sheetData>
